--- a/biology/Botanique/Nathaniel_Wallich/Nathaniel_Wallich.xlsx
+++ b/biology/Botanique/Nathaniel_Wallich/Nathaniel_Wallich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathaniel Wallich, né le 28 janvier 1786 à Copenhague et mort le 28 avril 1854 à Londres, est un botaniste danois qui fit sa carrière en Inde, d'abord à Serampore, puis au service de la Compagnie anglaise des Indes orientales, à Calcutta.
 </t>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à l’université d'Aberdeen et à Copenhague où il obtient son titre de docteur en médecine. Il devient le chirurgien de la petite colonie danoise à Serampore en Inde en 1807. Il entre dans le service médical britannique en 1813. De 1815 à 1850, il dirige le jardin botanique de Howrah (Calcutta).
-Wallich herborise au Népal, dans le Bengale et en Birmanie. Il devient membre de la Royal Society le 12 mars 1829 et est membre de la Linnean Society of London[1]. La Compagnie anglaise des Indes orientales érige un monument en son honneur dans l’enceinte des jardins.
+Wallich herborise au Népal, dans le Bengale et en Birmanie. Il devient membre de la Royal Society le 12 mars 1829 et est membre de la Linnean Society of London. La Compagnie anglaise des Indes orientales érige un monument en son honneur dans l’enceinte des jardins.
 Il fut membre de l'Académie royale danoise des sciences et des lettres.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wallich est notamment l’auteur de: 
 Descriptions of two new species of Sarcolobus and of some other Indian plants (Calcuta, 1815).
